--- a/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Maurice.Emp26@xyz.com.xlsx
+++ b/A3_Project_Demo_Digital_Transformation/Results_Data/Step4_Results_Ouput/2_Line_of_Defense/output_ad_xyz_ManagerReview_20211230_Maurice.Emp26@xyz.com.xlsx
@@ -17,163 +17,163 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
+    <t>AD_Privileged_Access</t>
+  </si>
+  <si>
+    <t>HR_Department_Name</t>
+  </si>
+  <si>
+    <t>HR_Manage_Email</t>
+  </si>
+  <si>
+    <t>AD_Lastname</t>
+  </si>
+  <si>
     <t>HR_Last_Name</t>
   </si>
   <si>
+    <t>zMatched</t>
+  </si>
+  <si>
+    <t>AD_Unique_AD_Departments</t>
+  </si>
+  <si>
+    <t>AD_WhenChanged</t>
+  </si>
+  <si>
+    <t>HR_Record_Type</t>
+  </si>
+  <si>
+    <t>AD_AccountExpiry</t>
+  </si>
+  <si>
+    <t>AD_EmailAddress</t>
+  </si>
+  <si>
+    <t>AD_Firstname</t>
+  </si>
+  <si>
+    <t>AD_Enabled</t>
+  </si>
+  <si>
+    <t>AD_DisplayName</t>
+  </si>
+  <si>
     <t>HR_Work_Email</t>
   </si>
   <si>
+    <t>AD_xyz_Grp_Tags</t>
+  </si>
+  <si>
+    <t>HR_Status</t>
+  </si>
+  <si>
+    <t>AD_Passwordset</t>
+  </si>
+  <si>
+    <t>HR_Termination_Date</t>
+  </si>
+  <si>
+    <t>AD_Description</t>
+  </si>
+  <si>
+    <t>HR_Employee_No</t>
+  </si>
+  <si>
+    <t>zDays_SinceLastLogonDate</t>
+  </si>
+  <si>
     <t>AD_CreateTimeStamp</t>
   </si>
   <si>
+    <t>AD_Company</t>
+  </si>
+  <si>
+    <t>AD_Department</t>
+  </si>
+  <si>
+    <t>AD_WhenCreated</t>
+  </si>
+  <si>
+    <t>zDays_SincePswdReset</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenCreated</t>
+  </si>
+  <si>
+    <t>zAD_User_Status</t>
+  </si>
+  <si>
+    <t>AD_SamAccountName</t>
+  </si>
+  <si>
+    <t>HR_First_Name</t>
+  </si>
+  <si>
+    <t>zDays_SinceWhenChanged</t>
+  </si>
+  <si>
+    <t>AD_LastLogonDate</t>
+  </si>
+  <si>
+    <t>HR_Division</t>
+  </si>
+  <si>
     <t>zTerminated_User_ActiveAD</t>
   </si>
   <si>
-    <t>zDays_SinceWhenCreated</t>
-  </si>
-  <si>
-    <t>HR_Record_Type</t>
-  </si>
-  <si>
-    <t>AD_Privileged_Access</t>
-  </si>
-  <si>
-    <t>AD_AccountExpiry</t>
-  </si>
-  <si>
-    <t>AD_WhenCreated</t>
-  </si>
-  <si>
-    <t>AD_WhenChanged</t>
-  </si>
-  <si>
-    <t>AD_xyz_Grp_Tags</t>
-  </si>
-  <si>
-    <t>zAD_User_Status</t>
-  </si>
-  <si>
-    <t>AD_Passwordset</t>
-  </si>
-  <si>
-    <t>AD_Company</t>
-  </si>
-  <si>
-    <t>AD_SamAccountName</t>
-  </si>
-  <si>
-    <t>AD_Unique_AD_Departments</t>
-  </si>
-  <si>
-    <t>AD_Department</t>
-  </si>
-  <si>
-    <t>HR_Division</t>
-  </si>
-  <si>
-    <t>HR_First_Name</t>
-  </si>
-  <si>
-    <t>AD_Firstname</t>
-  </si>
-  <si>
-    <t>HR_Department_Name</t>
-  </si>
-  <si>
-    <t>HR_Employee_No</t>
-  </si>
-  <si>
-    <t>HR_Termination_Date</t>
-  </si>
-  <si>
-    <t>zDays_SinceWhenChanged</t>
-  </si>
-  <si>
     <t>AD_xyz_Dept_Tags</t>
   </si>
   <si>
-    <t>zMatched</t>
-  </si>
-  <si>
-    <t>AD_Lastname</t>
-  </si>
-  <si>
-    <t>zDays_SincePswdReset</t>
-  </si>
-  <si>
-    <t>AD_Enabled</t>
-  </si>
-  <si>
-    <t>AD_EmailAddress</t>
-  </si>
-  <si>
-    <t>AD_Description</t>
-  </si>
-  <si>
-    <t>zDays_SinceLastLogonDate</t>
-  </si>
-  <si>
-    <t>AD_LastLogonDate</t>
-  </si>
-  <si>
-    <t>HR_Manage_Email</t>
-  </si>
-  <si>
-    <t>HR_Status</t>
-  </si>
-  <si>
-    <t>AD_DisplayName</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>MuleSoft</t>
+  </si>
+  <si>
+    <t>Maurice.Emp26@xyz.com</t>
   </si>
   <si>
     <t>Emp21</t>
   </si>
   <si>
+    <t>HR_Match</t>
+  </si>
+  <si>
+    <t>XY-Dept2</t>
+  </si>
+  <si>
+    <t>XYZ Employee</t>
+  </si>
+  <si>
     <t>debra.emp21@xyz.com</t>
   </si>
   <si>
-    <t>XYZ Employee</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Debra Emp21</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Request#103</t>
+  </si>
+  <si>
     <t>Inactive</t>
   </si>
   <si>
     <t>DEBRAEMP21x</t>
   </si>
   <si>
-    <t>XY-Dept2</t>
-  </si>
-  <si>
     <t>Strategy</t>
-  </si>
-  <si>
-    <t>Debra</t>
-  </si>
-  <si>
-    <t>MuleSoft</t>
-  </si>
-  <si>
-    <t>HR_Match</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>Request#103</t>
-  </si>
-  <si>
-    <t>Maurice.Emp26@xyz.com</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Debra Emp21</t>
   </si>
   <si>
     <t>AD_Group</t>
@@ -691,77 +691,83 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44459.5591087963</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44456.52199074074</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2">
+        <v>1021</v>
+      </c>
+      <c r="W2">
+        <v>106</v>
+      </c>
+      <c r="X2" s="2">
         <v>44457.52199074074</v>
       </c>
-      <c r="F2">
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>44457.52199074074</v>
+      </c>
+      <c r="AB2">
+        <v>109</v>
+      </c>
+      <c r="AC2">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44457.52199074074</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44459.5591087963</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2">
-        <v>44456.52199074074</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
         <v>44</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2">
-        <v>1021</v>
-      </c>
-      <c r="Y2">
-        <v>106</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2">
-        <v>109</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>49</v>
       </c>
       <c r="AG2">
         <v>106</v>
@@ -770,12 +776,6 @@
         <v>44459.54693287037</v>
       </c>
       <c r="AI2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -794,22 +794,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -817,19 +817,19 @@
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -837,19 +837,19 @@
         <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -857,19 +857,19 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
       <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -877,19 +877,19 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -897,22 +897,22 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
       <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -920,22 +920,22 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -943,22 +943,22 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -966,19 +966,19 @@
         <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
       </c>
       <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -986,22 +986,22 @@
         <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
       </c>
       <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
